--- a/stock_predictor_ai/data/company_sentiment_ready/DHI_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/DHI_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8318"/>
+  <dimension ref="A1:B8379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66985,6 +66985,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8319">
+      <c r="A8319" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B8319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8320">
+      <c r="A8320" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B8320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8321">
+      <c r="A8321" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B8321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8322">
+      <c r="A8322" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B8322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8323">
+      <c r="A8323" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B8323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8324">
+      <c r="A8324" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B8324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8325">
+      <c r="A8325" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B8325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8326">
+      <c r="A8326" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B8326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8327">
+      <c r="A8327" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B8327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8328">
+      <c r="A8328" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B8328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8329">
+      <c r="A8329" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B8329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8330">
+      <c r="A8330" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B8330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8331">
+      <c r="A8331" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B8331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8332">
+      <c r="A8332" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B8332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8333">
+      <c r="A8333" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B8333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8334">
+      <c r="A8334" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B8334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8335">
+      <c r="A8335" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B8335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8336">
+      <c r="A8336" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B8336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8337">
+      <c r="A8337" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B8337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8338">
+      <c r="A8338" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B8338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8339">
+      <c r="A8339" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B8339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8340">
+      <c r="A8340" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B8340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8341">
+      <c r="A8341" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B8341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8342">
+      <c r="A8342" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B8342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8343">
+      <c r="A8343" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B8343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8344">
+      <c r="A8344" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B8344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8345">
+      <c r="A8345" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B8345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8346">
+      <c r="A8346" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B8346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8347">
+      <c r="A8347" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B8347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8348">
+      <c r="A8348" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B8348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8349">
+      <c r="A8349" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B8349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8350">
+      <c r="A8350" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B8350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8351">
+      <c r="A8351" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B8351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8352">
+      <c r="A8352" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B8352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8353">
+      <c r="A8353" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B8353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8354">
+      <c r="A8354" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B8354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8355">
+      <c r="A8355" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B8355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8356">
+      <c r="A8356" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B8356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8357">
+      <c r="A8357" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B8357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8358">
+      <c r="A8358" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B8358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8359">
+      <c r="A8359" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B8359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8360">
+      <c r="A8360" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B8360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8361">
+      <c r="A8361" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B8361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8362">
+      <c r="A8362" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B8362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8363">
+      <c r="A8363" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B8363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8364">
+      <c r="A8364" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B8364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8365">
+      <c r="A8365" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B8365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8366">
+      <c r="A8366" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B8366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8367">
+      <c r="A8367" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B8367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8368">
+      <c r="A8368" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B8368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8369">
+      <c r="A8369" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B8369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8370">
+      <c r="A8370" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B8370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8371">
+      <c r="A8371" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B8371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8372">
+      <c r="A8372" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B8372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8373">
+      <c r="A8373" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B8373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8374">
+      <c r="A8374" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B8374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8375">
+      <c r="A8375" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B8375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8376">
+      <c r="A8376" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B8376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8377">
+      <c r="A8377" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B8377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8378">
+      <c r="A8378" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B8378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8379">
+      <c r="A8379" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B8379" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
